--- a/Lesson 1/Example01.xlsx
+++ b/Lesson 1/Example01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\DataBase\Lessons\Lesson 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C40BF2-FAB4-48FB-AA43-3396A24CE315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79C68D-5D8A-423A-A279-A259C43D02E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
